--- a/xlsx/哈佛大学_intext.xlsx
+++ b/xlsx/哈佛大学_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="918">
   <si>
     <t>哈佛大学</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E9%BE%8D%E6%B1%9F%E7%9C%81</t>
   </si>
   <si>
-    <t>黑龍江省</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_哈佛大学</t>
+    <t>黑龙江省</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_哈佛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%88%BE%E6%BF%B1%E5%B8%82</t>
   </si>
   <si>
-    <t>哈爾濱市</t>
+    <t>哈尔滨市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%B0%94%E6%BB%A8%E4%BD%9B%E5%AD%A6%E9%99%A2</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AA%9E</t>
   </si>
   <si>
-    <t>拉丁語</t>
+    <t>拉丁语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E8%AE%AD</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A0%94%E7%A9%B6%E5%9E%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>研究型大學</t>
+    <t>研究型大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%87%91</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E9%95%B7</t>
   </si>
   <si>
-    <t>校長</t>
+    <t>校长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A3%E7%88%BE%E5%B9%B3%C2%B7%E4%BD%9B%E6%96%AF%E7%89%B9</t>
   </si>
   <si>
-    <t>季爾平·佛斯特</t>
+    <t>季尔平·佛斯特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E7%A7%91%E7%94%9F</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%BE%8E%E5%A4%A7%E5%AD%B8%E9%AB%94%E8%82%B2%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>全美大學體育協會</t>
+    <t>全美大学体育协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E8%89%B2</t>
@@ -137,25 +137,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%8B%E7%B4%85</t>
   </si>
   <si>
-    <t>緋紅</t>
+    <t>绯红</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A7%E5%AD%B8%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>美國大學協會</t>
+    <t>美国大学协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD%E5%AD%B8%E6%A0%A1%E8%81%AF%E6%9C%83</t>
   </si>
   <si>
-    <t>新英格蘭學校聯會</t>
+    <t>新英格兰学校联会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>麻省議會</t>
+    <t>麻省议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E5%9C%B0%E5%AD%A6%E9%99%A2%E5%88%97%E8%A1%A8</t>
@@ -179,13 +179,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A7%E5%B8%AB</t>
   </si>
   <si>
-    <t>牧師</t>
+    <t>牧师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%93%88%E4%BD%9B</t>
   </si>
   <si>
-    <t>約翰·哈佛</t>
+    <t>约翰·哈佛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%90%86%E4%BC%9A</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E4%BD%8D%E8%AB%96%E6%B4%BE</t>
   </si>
   <si>
-    <t>一位論派</t>
+    <t>一位论派</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Boston_Brahmin</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>南北戰爭</t>
+    <t>南北战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%B0%94%E6%96%AF%C2%B7%E8%89%BE%E7%95%A5%E7%89%B9</t>
@@ -221,13 +221,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%A4%A7%E8%95%AD%E6%A2%9D</t>
   </si>
   <si>
-    <t>經濟大蕭條</t>
+    <t>经济大萧条</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%AC%A1%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>二次大戰</t>
+    <t>二次大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%BE%B7%E5%85%8B%E5%88%A9%E5%A4%AB%E5%AD%A6%E9%99%A2</t>
@@ -251,25 +251,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E7%89%99%E9%86%AB%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>哈佛牙醫學院</t>
+    <t>哈佛牙医学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93</t>
   </si>
   <si>
-    <t>波士頓</t>
+    <t>波士顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E6%9C%A8%E9%86%AB%E5%AD%B8%E5%8D%80</t>
   </si>
   <si>
-    <t>長木醫學區</t>
+    <t>长木医学区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E9%AB%94%E8%82%B2%E5%A0%B4</t>
   </si>
   <si>
-    <t>哈佛體育場</t>
+    <t>哈佛体育场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%95%86%E5%AD%A6%E9%99%A2</t>
@@ -287,19 +287,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E7%94%A2</t>
   </si>
   <si>
-    <t>資產</t>
+    <t>资产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>大學圖書館</t>
+    <t>大学图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國總統</t>
+    <t>美国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E8%B1%AA</t>
@@ -323,25 +323,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%A4%A7%E5%AD%B8%E8%AB%BE%E8%B2%9D%E7%88%BE%E7%8D%8E%E5%BE%97%E4%B8%BB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各大學諾貝爾獎得主列表</t>
+    <t>各大学诺贝尔奖得主列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E5%88%97%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>保羅·列維爾</t>
+    <t>保罗·列维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%8D%E6%A9%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>劍橋大學</t>
+    <t>剑桥大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%95%99%E5%BE%92</t>
@@ -353,13 +353,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E8%81%B7%E4%BA%BA%E5%93%A1</t>
   </si>
   <si>
-    <t>神職人員</t>
+    <t>神职人员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E4%BF%97%E5%8C%96</t>
@@ -371,19 +371,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
   </si>
   <si>
-    <t>梵蒂岡</t>
+    <t>梵蒂冈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E9%BB%A8</t>
   </si>
   <si>
-    <t>聯邦黨</t>
+    <t>联邦党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A1%E9%A0%AD%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>寡頭政治</t>
+    <t>寡头政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E9%87%8C%E5%BE%B7</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E4%BA%BA</t>
   </si>
   <si>
-    <t>猶太人</t>
+    <t>犹太人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99%E5%BE%92</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>賓夕法尼亞大學</t>
+    <t>宾夕法尼亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%9C%97%E5%A4%A7%E5%AD%A6</t>
@@ -461,13 +461,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%9E%97%E6%96%AF%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>普林斯頓大學</t>
+    <t>普林斯顿大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E9%A0%83</t>
   </si>
   <si>
-    <t>公頃</t>
+    <t>公顷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E9%87%8C</t>
@@ -497,13 +497,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>麻省理工學院</t>
+    <t>麻省理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E9%AD%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>耶魯大學</t>
+    <t>耶鲁大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%85%88%E5%96%84%E5%AE%B6</t>
@@ -521,19 +521,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93</t>
   </si>
   <si>
-    <t>華盛頓</t>
+    <t>华盛顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%A6%E5%B7%B4%E9%A0%93%E6%A9%A1%E6%A8%B9%E5%9C%92</t>
   </si>
   <si>
-    <t>敦巴頓橡樹園</t>
+    <t>敦巴顿橡树园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
@@ -551,13 +551,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%BB%8A</t>
   </si>
   <si>
-    <t>電車</t>
+    <t>电车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E8%BB%8A</t>
   </si>
   <si>
-    <t>單車</t>
+    <t>单车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%96%B9%E7%B1%B3</t>
@@ -569,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B9%E7%B4%B0%E8%83%9E</t>
   </si>
   <si>
-    <t>幹細胞</t>
+    <t>干细胞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E6%96%87%E7%90%86%E5%AD%A6%E9%99%A2</t>
@@ -581,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>哈佛學院</t>
+    <t>哈佛学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E6%96%87%E7%90%86%E7%A0%94%E7%A9%B6%E9%99%A2</t>
@@ -599,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E9%80%B2%E4%BF%AE%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>哈佛進修學院</t>
+    <t>哈佛进修学院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Harvard_Extension_School</t>
@@ -629,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E6%B3%95%E5%BE%8B%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>哈佛法律學院</t>
+    <t>哈佛法律学院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Harvard_Graduate_School_of_Design</t>
@@ -659,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B-MIT%E5%81%A5%E5%BA%B7%E7%A7%91%E5%AD%B8%E8%88%87%E6%8A%80%E8%A1%93%E9%83%A8</t>
   </si>
   <si>
-    <t>哈佛-MIT健康科學與技術部</t>
+    <t>哈佛-MIT健康科学与技术部</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Broad_Institute</t>
@@ -683,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E9%87%91</t>
   </si>
   <si>
-    <t>資金</t>
+    <t>资金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%B8%83%E6%96%AF</t>
@@ -701,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>醫學</t>
+    <t>医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%AD%A6</t>
@@ -713,13 +713,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E5%A3%AB</t>
   </si>
   <si>
-    <t>學士</t>
+    <t>学士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A2%A9%E5%A3%AB</t>
   </si>
   <si>
-    <t>碩士</t>
+    <t>硕士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%A3%AB</t>
@@ -731,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%AD%98%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>通識教育</t>
+    <t>通识教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A9%E6%95%99</t>
@@ -743,19 +743,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E6%9C%9F</t>
   </si>
   <si>
-    <t>學期</t>
+    <t>学期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E6%96%87%E5%AD%B8%E4%BD%8D%E6%A6%AE%E8%AD%BD</t>
   </si>
   <si>
-    <t>拉丁文學位榮譽</t>
+    <t>拉丁文学位荣誉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%B7%E5%BE%B7%E7%B4%8D%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>懷德納圖書館</t>
+    <t>怀德纳图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E6%9C%AF</t>
@@ -767,19 +767,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>美國國會圖書館</t>
+    <t>美国国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E7%87%95%E4%BA%AC%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>哈佛燕京圖書館</t>
+    <t>哈佛燕京图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E</t>
   </si>
   <si>
-    <t>東亞</t>
+    <t>东亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%92%C2%B7%E6%9F%AF%E5%B8%83%E8%A5%BF%E8%80%B6</t>
@@ -791,49 +791,49 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%AD%90</t>
   </si>
   <si>
-    <t>中歐</t>
+    <t>中欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AD%90</t>
   </si>
   <si>
-    <t>北歐</t>
+    <t>北欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%A0%BC%E8%97%9D%E8%A1%93%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>福格藝術博物館</t>
+    <t>福格艺术博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%97%9D%E5%BE%A9%E8%88%88</t>
   </si>
   <si>
-    <t>文藝復興</t>
+    <t>文艺复兴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E6%8B%89%E6%96%90%E7%88%BE%E6%B4%BE</t>
   </si>
   <si>
-    <t>前拉斐爾派</t>
+    <t>前拉斐尔派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>大學排名</t>
+    <t>大学排名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A4%A7%E5%AD%A6%E5%AD%A6%E6%9C%AF%E6%8E%92%E5%90%8D</t>
@@ -851,19 +851,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E6%99%A4%E5%A3%AB%E9%AB%98%E7%AD%89%E6%95%99%E8%82%B2%E4%B8%96%E7%95%8C%E5%A4%A7%E5%AD%B8%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>泰晤士高等教育世界大學排名</t>
+    <t>泰晤士高等教育世界大学排名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%96%B0%E8%81%9E%E8%88%87%E4%B8%96%E7%95%8C%E5%A0%B1%E5%B0%8E</t>
   </si>
   <si>
-    <t>美國新聞與世界報導</t>
+    <t>美国新闻与世界报导</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E6%9C%88%E5%88%8A</t>
   </si>
   <si>
-    <t>華盛頓月刊</t>
+    <t>华盛顿月刊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E6%99%A4%E5%A3%AB%E9%AB%98%E7%AD%89%E6%95%99%E8%82%B2-QS%E4%B8%96%E7%95%8C%E5%A4%A7%E5%AD%A6%E6%8E%92%E5%90%8D</t>
@@ -881,13 +881,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%9E%97%E6%96%AF%E9%A0%93%E8%A9%95%E8%AB%96</t>
   </si>
   <si>
-    <t>普林斯頓評論</t>
+    <t>普林斯顿评论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%BE%8E%E5%A4%A7%E5%AD%B8%E9%AB%94%E8%82%B2%E5%8D%94%E6%9C%83%E7%94%B2%E7%B5%84</t>
   </si>
   <si>
-    <t>全美大學體育協會甲組</t>
+    <t>全美大学体育协会甲组</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Harvard%E2%80%93Yale_Regatta</t>
@@ -905,7 +905,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%83%E7%90%83</t>
   </si>
   <si>
-    <t>籃球</t>
+    <t>篮球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%B2%E6%A3%8D%E7%90%83</t>
@@ -929,7 +929,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E8%89%87</t>
   </si>
   <si>
-    <t>賽艇</t>
+    <t>赛艇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%B0%94%E7%89%B9%C2%B7%E5%9D%8E%E6%99%AE</t>
@@ -941,7 +941,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>牛津大學</t>
+    <t>牛津大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E5%A5%88%E5%B0%94%E5%A4%A7%E5%AD%A6</t>
@@ -965,13 +965,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%BE%B7%E8%8F%AF%C2%B7%E5%A8%81%E7%88%BE%E6%A3%AE</t>
   </si>
   <si>
-    <t>艾德華·威爾森</t>
+    <t>艾德华·威尔森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%8A%C2%B7%E6%A0%BC%E5%8B%9E%E4%BC%AF</t>
   </si>
   <si>
-    <t>羅伊·格勞伯</t>
+    <t>罗伊·格劳伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E9%87%8C%E4%BA%9A%E6%96%AF%C2%B7%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E7%A7%91%E9%87%8C</t>
@@ -1007,19 +1007,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%A6%AC%E8%92%82%E4%BA%9E%C2%B7%E5%BA%AB%E9%A6%AC%E7%88%BE%C2%B7%E6%A3%AE</t>
   </si>
   <si>
-    <t>阿馬蒂亞·庫馬爾·森</t>
+    <t>阿马蒂亚·库马尔·森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E4%BA%9E%E7%95%B6%E6%96%AF</t>
   </si>
   <si>
-    <t>約翰·亞當斯</t>
+    <t>约翰·亚当斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%98%86%E8%A5%BF%C2%B7%E4%BA%9E%E7%95%B6%E6%96%AF</t>
   </si>
   <si>
-    <t>約翰·昆西·亞當斯</t>
+    <t>约翰·昆西·亚当斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%91%9F%E7%A6%8F%E5%BE%B7%C2%B7%E4%BC%AF%E6%9F%A5%E5%BE%B7%C2%B7%E6%B5%B7%E6%96%AF</t>
@@ -1031,31 +1031,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%A7%E5%A4%9A%C2%B7%E7%BE%85%E6%96%AF%E7%A6%8F</t>
   </si>
   <si>
-    <t>西奧多·羅斯福</t>
+    <t>西奥多·罗斯福</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E8%98%AD%E5%85%8B%E6%9E%97%C2%B7%E5%BE%B7%E6%8B%89%E8%AB%BE%C2%B7%E7%BE%85%E6%96%AF%E7%A6%8F</t>
   </si>
   <si>
-    <t>富蘭克林·德拉諾·羅斯福</t>
+    <t>富兰克林·德拉诺·罗斯福</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E7%94%98%E8%BF%BA%E8%BF%AA</t>
   </si>
   <si>
-    <t>約翰·甘迺迪</t>
+    <t>约翰·甘迺迪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E6%B2%83%E5%85%8B%C2%B7%E5%B8%83%E4%BB%80</t>
   </si>
   <si>
-    <t>喬治·沃克·布什</t>
+    <t>乔治·沃克·布什</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%85%8B%C2%B7%E5%A5%A7%E5%B7%B4%E9%A6%AC</t>
   </si>
   <si>
-    <t>巴拉克·奧巴馬</t>
+    <t>巴拉克·奥巴马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
@@ -1079,7 +1079,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E5%AE%89%C2%B7%E6%9B%BC%E5%8A%AA%E5%9F%83%E7%88%BE%C2%B7%E6%A1%91%E6%89%98%E6%96%AF</t>
   </si>
   <si>
-    <t>胡安·曼努埃爾·桑托斯</t>
+    <t>胡安·曼努埃尔·桑托斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0%E6%80%BB%E7%BB%9F</t>
@@ -1097,13 +1097,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>墨西哥總統</t>
+    <t>墨西哥总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%88%A9%E4%BD%A9%C2%B7%E5%8D%A1%E7%88%BE%E5%BE%B7%E9%BE%8D</t>
   </si>
   <si>
-    <t>費利佩·卡爾德龍</t>
+    <t>费利佩·卡尔德龙</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Carlos_Salinas_de_Gortari</t>
@@ -1121,13 +1121,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>中華民國總統</t>
+    <t>中华民国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%8B%B1%E4%B9%9D</t>
   </si>
   <si>
-    <t>馬英九</t>
+    <t>马英九</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E7%A7%98%E4%B9%A6%E9%95%BF</t>
@@ -1163,7 +1163,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E6%9B%B8%E8%B1%AA</t>
   </si>
   <si>
-    <t>林書豪</t>
+    <t>林书豪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%96%AF%E5%8D%A1%E6%9C%80%E4%BD%B3%E5%A5%B3%E4%B8%BB%E8%A7%92</t>
@@ -1181,7 +1181,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E5%8D%A1%E6%9C%80%E4%BD%B3%E5%B0%8E%E6%BC%94</t>
   </si>
   <si>
-    <t>奧斯卡最佳導演</t>
+    <t>奥斯卡最佳导演</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E7%B1%B3%E6%81%A9%C2%B7%E6%9F%A5%E6%B3%BD%E9%9B%B7</t>
@@ -1193,7 +1193,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%A0%E6%98%A5%E6%8B%B3</t>
   </si>
   <si>
-    <t>詠春拳</t>
+    <t>咏春拳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%AD%E5%A8%81%E8%B4%A4</t>
@@ -1211,19 +1211,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%A4%A7%E5%AD%B8%E8%AB%BE%E8%B2%9D%E7%88%BE%E5%BE%97%E7%8D%8E%E8%80%85%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各大學諾貝爾得獎者列表</t>
+    <t>各大学诺贝尔得奖者列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E7%A6%8F%E5%85%8B%E7%B4%8D</t>
   </si>
   <si>
-    <t>威廉·福克納</t>
+    <t>威廉·福克纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%A7%E5%98%A9%E8%88%87%E9%A8%B7%E5%8B%95</t>
   </si>
   <si>
-    <t>喧嘩與騷動</t>
+    <t>喧哗与骚动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E6%94%BF%E4%BF%8F%E4%BD%B3%E4%BA%BA</t>
@@ -1271,7 +1271,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>Template talk-哈佛大學</t>
+    <t>Template talk-哈佛大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Harvard_Board_of_Overseers</t>
@@ -1331,7 +1331,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E5%88%A9%E5%A5%A7%C2%B7%E5%BC%97%E5%80%AB%E5%85%8B</t>
   </si>
   <si>
-    <t>胡利奧·弗倫克</t>
+    <t>胡利奥·弗伦克</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Jeffrey_S._Flier</t>
@@ -1361,7 +1361,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B-%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E9%86%AB%E7%99%82%E7%A7%91%E6%8A%80%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>哈佛-麻省理工醫療科技學院</t>
+    <t>哈佛-麻省理工医疗科技学院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Adams_House_(Harvard_University)</t>
@@ -1451,13 +1451,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E8%97%9D%E8%A1%93%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>哈佛藝術博物館</t>
+    <t>哈佛艺术博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E8%87%AA%E7%84%B6%E5%8F%B2%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>哈佛自然史博物館</t>
+    <t>哈佛自然史博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6%E5%87%BA%E7%89%88%E7%A4%BE</t>
@@ -1487,7 +1487,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E6%AD%A3%E6%B8%85%E4%B8%AD%E5%9C%8B%E7%A0%94%E7%A9%B6%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>費正清中國研究中心</t>
+    <t>费正清中国研究中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E7%87%95%E4%BA%AC%E5%AD%A6%E7%A4%BE</t>
@@ -1547,7 +1547,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%95%86%E6%A5%AD%E8%A9%95%E8%AB%96</t>
   </si>
   <si>
-    <t>哈佛商業評論</t>
+    <t>哈佛商业评论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E6%B3%95%E5%BE%8B%E8%AF%84%E8%AE%BA</t>
@@ -1583,25 +1583,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
-    <t>宾夕法尼亚大学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%9E%97%E6%96%AF%E9%A1%BF%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
-    <t>普林斯顿大学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E9%B2%81%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
-    <t>耶鲁大学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>公立大學</t>
+    <t>公立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%A4%A7%E5%AD%A6</t>
@@ -1619,7 +1610,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E6%9F%8F%E5%85%8B%E8%90%8A%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州大學柏克萊分校</t>
+    <t>加州大学柏克莱分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6%E6%88%B4%E7%BB%B4%E6%96%AF%E5%88%86%E6%A0%A1</t>
@@ -1631,7 +1622,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E7%88%BE%E7%81%A3%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州大學爾灣分校</t>
+    <t>加州大学尔湾分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6%E6%B4%9B%E6%9D%89%E7%9F%B6%E5%88%86%E6%A0%A1</t>
@@ -1655,7 +1646,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>科羅拉多大學</t>
+    <t>科罗拉多大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%A4%A7%E5%AD%A6</t>
@@ -1673,7 +1664,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>伊利諾大學</t>
+    <t>伊利诺大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%A4%A7%E5%AD%A6</t>
@@ -1703,7 +1694,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E8%98%AD%E5%A4%A7%E5%AD%B8%E5%AD%B8%E9%99%A2%E5%B8%82%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>馬里蘭大學學院市分校</t>
+    <t>马里兰大学学院市分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%A4%A7%E5%AD%A6</t>
@@ -1733,25 +1724,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>紐約州立大學</t>
+    <t>纽约州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E6%B0%B4%E7%89%9B%E5%9F%8E%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>紐約州立大學水牛城分校</t>
+    <t>纽约州立大学水牛城分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%BA%AA%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>石溪大學</t>
+    <t>石溪大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BE%85%E4%BE%86%E7%B4%8D%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>北卡羅來納大學</t>
+    <t>北卡罗来纳大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%A4%A7%E5%AD%A6%E6%95%99%E5%A0%82%E5%B1%B1%E5%88%86%E6%A0%A1</t>
@@ -1769,7 +1760,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%B2%A1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>俄勒岡大學</t>
+    <t>俄勒冈大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
@@ -1781,13 +1772,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%B9%E8%8C%B2%E5%A0%A1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>匹茲堡大學</t>
+    <t>匹兹堡大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%B8%A1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>普渡大學</t>
+    <t>普渡大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%A0%BC%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
@@ -1799,13 +1790,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E5%A5%A7%E6%96%AF%E6%B1%80%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>德克薩斯州立大學奧斯汀分校</t>
+    <t>德克萨斯州立大学奥斯汀分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B7%9E%E8%BE%B2%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>德州農工大學</t>
+    <t>德州农工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%A4%A7%E5%AD%A6</t>
@@ -1829,7 +1820,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>波士頓大學</t>
+    <t>波士顿大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%85%B0%E8%BF%AA%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
@@ -1853,7 +1844,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E6%96%AF%E8%A5%BF%E5%84%B2%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>凱斯西儲大學</t>
+    <t>凯斯西储大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%A4%A7%E5%AD%A6</t>
@@ -1865,7 +1856,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%88%BE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>康乃爾大學</t>
+    <t>康乃尔大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E5%85%8B%E5%A4%A7%E5%AD%A6</t>
@@ -1877,7 +1868,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E9%BB%98%E9%87%8C%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>埃默里大學</t>
+    <t>埃默里大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E9%9C%8D%E6%99%AE%E9%87%91%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
@@ -1889,9 +1880,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E5%AD%A6%E9%99%A2</t>
   </si>
   <si>
-    <t>麻省理工学院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8C%97%E5%A4%A7%E5%AD%A6_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
@@ -1907,13 +1895,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>萊斯大學</t>
+    <t>莱斯大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B9%E6%96%AF%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>羅徹斯特大學</t>
+    <t>罗彻斯特大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6</t>
@@ -1925,13 +1913,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E4%B8%B9%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>史丹佛大學</t>
+    <t>史丹佛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E8%98%AD%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>杜蘭大學</t>
+    <t>杜兰大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E5%BE%B7%E5%A0%A1%E5%A4%A7%E5%AD%A6</t>
@@ -1949,7 +1937,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%A4%A7%E5%AD%B8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>加拿大大學列表</t>
+    <t>加拿大大学列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E5%90%89%E5%B0%94%E5%A4%A7%E5%AD%A6</t>
@@ -1961,19 +1949,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%80%AB%E5%A4%9A%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>多倫多大學</t>
+    <t>多伦多大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A9%E4%B8%BB%E6%95%99%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>美國天主教大學</t>
+    <t>美国天主教大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%85%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>克拉克大學</t>
+    <t>克拉克大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E5%9F%8E%E5%A4%A7%E5%AD%A6</t>
@@ -1991,7 +1979,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%9C%8B%E5%A4%A7%E5%AD%B8%E9%AB%94%E8%82%B2%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>全國大學體育協會</t>
+    <t>全国大学体育协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NCAA%E7%AC%AC%E4%B8%80%E7%BA%A7%E5%88%AB</t>
@@ -2093,9 +2081,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%9B%E8%89%87</t>
   </si>
   <si>
-    <t>赛艇</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E5%A4%A7%E8%81%94%E7%9B%9F</t>
   </si>
   <si>
@@ -2165,7 +2150,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E9%98%BF%E5%AF%86%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>邁阿密大學</t>
+    <t>迈阿密大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
@@ -2183,37 +2168,34 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>堪薩斯州立大學</t>
+    <t>堪萨斯州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%8B%92%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>貝勒大學</t>
+    <t>贝勒大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>奧克拉荷馬州立大學</t>
+    <t>奥克拉荷马州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B7%9E%E5%86%9C%E5%B7%A5%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
-    <t>德州农工大学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>德克薩斯理工大學</t>
+    <t>德克萨斯理工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>奧克拉荷馬大學</t>
+    <t>奥克拉荷马大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%A4%A7%E5%AD%A6%E5%A5%A5%E6%96%AF%E6%B1%80%E5%88%86%E6%A0%A1</t>
@@ -2225,25 +2207,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%8D%81%E4%BA%8C%E6%A0%A1%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>太平洋十二校聯盟</t>
+    <t>太平洋十二校联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>亞利桑那州立大學</t>
+    <t>亚利桑那州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%B2%A1%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>俄勒岡州立大學</t>
+    <t>俄勒冈州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>華盛頓州立大學</t>
+    <t>华盛顿州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E8%81%94%E7%9B%9F</t>
@@ -2267,13 +2249,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>田納西大學</t>
+    <t>田纳西大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>喬治亞大學</t>
+    <t>乔治亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
@@ -2291,7 +2273,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>路易斯安那州立大學</t>
+    <t>路易斯安那州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%A4%A7%E5%AD%A6</t>
@@ -2303,7 +2285,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9C%AC%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>奧本大學</t>
+    <t>奥本大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%A4%A7%E5%AD%A6</t>
@@ -2315,7 +2297,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>南卡羅萊納大學</t>
+    <t>南卡罗莱纳大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E8%BE%9B%E9%82%A3%E6%8F%90%E5%A4%A7%E5%AD%A6</t>
@@ -2357,19 +2339,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%AF%8D%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖母大學</t>
+    <t>圣母大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%B9%E5%85%B9%E5%A0%A1%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
-    <t>匹兹堡大学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E7%BE%85%E7%B6%AD%E7%99%BB%E6%96%AF%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>普羅維登斯學院</t>
+    <t>普罗维登斯学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%BA%A6%E7%BF%B0%E5%A4%A7%E5%AD%A6</t>
@@ -2393,7 +2372,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>西弗吉尼亞大學</t>
+    <t>西弗吉尼亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AB%E7%91%B0%E7%A2%97</t>
@@ -2453,13 +2432,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%8D%81%E5%AD%97%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>聖十字學院</t>
+    <t>圣十字学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%8A%E7%99%BE%E7%BF%B0%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>楊百翰大學</t>
+    <t>杨百翰大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%9F%BA%E7%9D%A3%E6%95%99%E5%A4%A7%E5%AD%A6</t>
@@ -2471,13 +2450,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>科羅拉多學院</t>
+    <t>科罗拉多学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>丹佛大學</t>
+    <t>丹佛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9D%E6%9E%97%E6%A0%BC%E6%9E%97%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
@@ -2489,19 +2468,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E6%A0%B9%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>密西根理工大學</t>
+    <t>密西根理工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%AF%86%E6%AD%87%E6%A0%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>北密歇根大學</t>
+    <t>北密歇根大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%BF%85%E5%88%A9%E7%88%BE%E6%B9%96%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>蘇必利爾湖州立大學</t>
+    <t>苏必利尔湖州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%96%AF%E5%8B%92%E7%90%86%E5%B7%A5%E5%AD%A6%E9%99%A2</t>
@@ -2525,7 +2504,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>科羅拉多州立大學</t>
+    <t>科罗拉多州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6%E6%AC%A7%E6%96%87%E5%88%86%E6%A0%A1</t>
@@ -2555,7 +2534,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E7%8F%80%E4%BB%A3%E5%9B%A0%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>佩珀代因大學</t>
+    <t>佩珀代因大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E5%8D%8E%E5%A4%A7%E5%AD%A6</t>
@@ -2567,15 +2546,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E6%B4%9B%E6%9D%89%E7%A3%AF%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學洛杉磯分校</t>
+    <t>加州州立大学洛杉矶分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
-    <t>莱斯大学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A5%A5%E5%B0%94%E8%89%AF%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
@@ -2609,7 +2585,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%92%B0%E5%A2%83%E7%B3%BB%E7%B5%B1%E7%A0%94%E7%A9%B6%E6%89%80%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>美國環境系統研究所公司</t>
+    <t>美国环境系统研究所公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E7%94%B5%E6%B0%94</t>
@@ -2621,7 +2597,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E6%A2%85%E6%A3%AE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>喬治梅森大學</t>
+    <t>乔治梅森大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E9%BA%A6%E8%BF%AA%E9%80%8A%E5%A4%A7%E5%AD%A6</t>
@@ -2645,7 +2621,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%99%AE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>天普大學</t>
+    <t>天普大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E%E5%86%9C%E5%B7%A5%E5%A4%A7%E5%AD%A6</t>
@@ -2657,19 +2633,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>德克薩斯州立大學</t>
+    <t>德克萨斯州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8%E8%81%96%E5%A1%94%E8%8A%AD%E8%8A%AD%E6%8B%89%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加利福尼亞大學聖塔芭芭拉分校</t>
+    <t>加利福尼亚大学圣塔芭芭拉分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E9%81%94%E8%8D%B7%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>愛達荷大學</t>
+    <t>爱达荷大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%A4%A7%E5%AD%A6%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%88%86%E6%A0%A1</t>
@@ -2693,19 +2669,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BE%85%E4%BE%86%E7%B4%8D%E5%A4%A7%E5%AD%B8%E5%A4%8F%E6%B4%9B%E7%89%B9%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>北卡羅來納大學夏洛特分校</t>
+    <t>北卡罗来纳大学夏洛特分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%BE%B7%E8%98%AD%E8%8C%B2%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>雷德蘭茲大學</t>
+    <t>雷德兰兹大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BE%85%E4%BE%86%E7%B4%8D%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>南卡羅來納大學</t>
+    <t>南卡罗来纳大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E6%98%9F%E5%A4%A7%E5%AD%A6%E5%AF%86%E5%B0%94%E6%B2%83%E5%9F%BA%E5%88%86%E6%A0%A1</t>
@@ -2717,7 +2693,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%AF%86%E6%AD%87%E6%A0%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>西密歇根大學</t>
+    <t>西密歇根大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_colleges_and_universities_in_metropolitan_Boston</t>
@@ -2729,13 +2705,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%85%8B%E5%88%A9%E9%9F%B3%E6%A8%82%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>伯克利音樂學院</t>
+    <t>伯克利音乐学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E5%BB%BA%E7%AF%89%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>波士頓建築學院</t>
+    <t>波士顿建筑学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%85%B0%E6%88%B4%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
@@ -2753,7 +2729,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E7%89%B9%E5%9C%8B%E9%9A%9B%E5%95%86%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>霍特國際商學院</t>
+    <t>霍特国际商学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E8%8D%AF%E7%A7%91%E4%B8%8E%E5%81%A5%E5%BA%B7%E7%A7%91%E5%AD%A6%E5%A4%A7%E5%AD%A6</t>
@@ -2783,19 +2759,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%A4%AB%E8%8C%A8%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>塔夫茨大學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E5%B7%9E%E5%A4%A7%E5%AD%B8%E6%B3%A2%E5%A3%AB%E9%A0%93%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>麻州大學波士頓分校</t>
+    <t>麻州大学波士顿分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E7%89%B9%E6%B2%83%E6%96%AF%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>溫特沃斯理工學院</t>
+    <t>温特沃斯理工学院</t>
   </si>
 </sst>
 </file>
@@ -11286,7 +11259,7 @@
         <v>521</v>
       </c>
       <c r="F281" t="s">
-        <v>522</v>
+        <v>144</v>
       </c>
       <c r="G281" t="n">
         <v>5</v>
@@ -11312,10 +11285,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F282" t="s">
-        <v>524</v>
+        <v>148</v>
       </c>
       <c r="G282" t="n">
         <v>5</v>
@@ -11341,10 +11314,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F283" t="s">
-        <v>526</v>
+        <v>162</v>
       </c>
       <c r="G283" t="n">
         <v>6</v>
@@ -11399,10 +11372,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F285" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11428,10 +11401,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F286" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11457,10 +11430,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F287" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G287" t="n">
         <v>2</v>
@@ -11486,10 +11459,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F288" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G288" t="n">
         <v>6</v>
@@ -11515,10 +11488,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F289" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11544,10 +11517,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F290" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11573,10 +11546,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F291" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G291" t="n">
         <v>7</v>
@@ -11602,10 +11575,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F292" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G292" t="n">
         <v>2</v>
@@ -11631,10 +11604,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F293" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11660,10 +11633,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F294" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G294" t="n">
         <v>2</v>
@@ -11689,10 +11662,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F295" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11718,10 +11691,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F296" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G296" t="n">
         <v>2</v>
@@ -11747,10 +11720,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F297" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11776,10 +11749,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F298" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11805,10 +11778,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F299" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G299" t="n">
         <v>2</v>
@@ -11834,10 +11807,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F300" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11863,10 +11836,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F301" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G301" t="n">
         <v>2</v>
@@ -11892,10 +11865,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F302" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G302" t="n">
         <v>2</v>
@@ -11921,10 +11894,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F303" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G303" t="n">
         <v>3</v>
@@ -11950,10 +11923,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F304" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11979,10 +11952,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F305" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G305" t="n">
         <v>2</v>
@@ -12008,10 +11981,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F306" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12037,10 +12010,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F307" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12066,10 +12039,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F308" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12095,10 +12068,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F309" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12124,10 +12097,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F310" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G310" t="n">
         <v>2</v>
@@ -12153,10 +12126,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F311" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G311" t="n">
         <v>4</v>
@@ -12182,10 +12155,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F312" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G312" t="n">
         <v>2</v>
@@ -12211,10 +12184,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F313" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G313" t="n">
         <v>2</v>
@@ -12240,10 +12213,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F314" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G314" t="n">
         <v>2</v>
@@ -12269,10 +12242,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F315" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G315" t="n">
         <v>2</v>
@@ -12298,10 +12271,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F316" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12327,10 +12300,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F317" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12356,10 +12329,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F318" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12385,10 +12358,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F319" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12414,10 +12387,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F320" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G320" t="n">
         <v>2</v>
@@ -12443,10 +12416,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F321" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G321" t="n">
         <v>3</v>
@@ -12472,10 +12445,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F322" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12501,10 +12474,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F323" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G323" t="n">
         <v>2</v>
@@ -12530,10 +12503,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F324" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12588,10 +12561,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F326" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12617,10 +12590,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F327" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12646,10 +12619,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F328" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12675,10 +12648,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F329" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12733,10 +12706,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F331" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12762,10 +12735,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F332" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12791,10 +12764,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F333" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12820,10 +12793,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F334" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G334" t="n">
         <v>2</v>
@@ -12849,10 +12822,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F335" t="s">
-        <v>624</v>
+        <v>160</v>
       </c>
       <c r="G335" t="n">
         <v>2</v>
@@ -12878,10 +12851,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F336" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12907,10 +12880,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F337" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12939,7 +12912,7 @@
         <v>521</v>
       </c>
       <c r="F338" t="s">
-        <v>522</v>
+        <v>144</v>
       </c>
       <c r="G338" t="n">
         <v>2</v>
@@ -12965,10 +12938,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F339" t="s">
-        <v>524</v>
+        <v>148</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12994,10 +12967,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F340" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13023,10 +12996,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F341" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13052,10 +13025,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F342" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13081,10 +13054,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F343" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13110,10 +13083,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F344" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13139,10 +13112,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F345" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13168,10 +13141,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F346" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13197,10 +13170,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F347" t="s">
-        <v>526</v>
+        <v>162</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13226,10 +13199,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F348" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13255,10 +13228,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F349" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13284,10 +13257,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F350" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13313,10 +13286,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F351" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13342,10 +13315,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F352" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13371,10 +13344,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F353" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G353" t="n">
         <v>2</v>
@@ -13400,10 +13373,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F354" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13429,10 +13402,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F355" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13458,10 +13431,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F356" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13487,10 +13460,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F357" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G357" t="n">
         <v>3</v>
@@ -13516,10 +13489,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F358" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13545,10 +13518,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F359" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13574,10 +13547,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F360" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13603,10 +13576,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F361" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13632,10 +13605,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F362" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13661,10 +13634,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="F363" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13690,10 +13663,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F364" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13719,10 +13692,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F365" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13748,10 +13721,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F366" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13777,10 +13750,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F367" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13806,10 +13779,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="F368" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13835,10 +13808,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F369" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13864,10 +13837,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F370" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13893,10 +13866,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F371" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13922,10 +13895,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F372" t="s">
-        <v>692</v>
+        <v>304</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13951,10 +13924,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="F373" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13980,10 +13953,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F374" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G374" t="n">
         <v>3</v>
@@ -14009,10 +13982,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="F375" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="G375" t="n">
         <v>5</v>
@@ -14038,10 +14011,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F376" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G376" t="n">
         <v>6</v>
@@ -14067,10 +14040,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="F377" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="G377" t="n">
         <v>5</v>
@@ -14096,10 +14069,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F378" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G378" t="n">
         <v>3</v>
@@ -14125,10 +14098,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F379" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G379" t="n">
         <v>6</v>
@@ -14154,10 +14127,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F380" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G380" t="n">
         <v>6</v>
@@ -14183,10 +14156,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F381" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G381" t="n">
         <v>17</v>
@@ -14212,10 +14185,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F382" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G382" t="n">
         <v>5</v>
@@ -14241,10 +14214,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F383" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G383" t="n">
         <v>9</v>
@@ -14270,10 +14243,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F384" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G384" t="n">
         <v>5</v>
@@ -14299,10 +14272,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="F385" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="G385" t="n">
         <v>6</v>
@@ -14328,10 +14301,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="F386" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="G386" t="n">
         <v>5</v>
@@ -14357,10 +14330,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F387" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G387" t="n">
         <v>5</v>
@@ -14386,10 +14359,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="F388" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14415,10 +14388,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F389" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G389" t="n">
         <v>4</v>
@@ -14444,10 +14417,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="F390" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="G390" t="n">
         <v>4</v>
@@ -14473,10 +14446,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="F391" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="G391" t="n">
         <v>3</v>
@@ -14502,10 +14475,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F392" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G392" t="n">
         <v>5</v>
@@ -14531,10 +14504,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F393" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G393" t="n">
         <v>6</v>
@@ -14560,10 +14533,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="F394" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="G394" t="n">
         <v>3</v>
@@ -14589,10 +14562,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F395" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G395" t="n">
         <v>3</v>
@@ -14618,10 +14591,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="F396" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="G396" t="n">
         <v>2</v>
@@ -14647,10 +14620,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="F397" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14676,10 +14649,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="F398" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="G398" t="n">
         <v>3</v>
@@ -14705,10 +14678,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="F399" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G399" t="n">
         <v>3</v>
@@ -14734,10 +14707,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="F400" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14763,10 +14736,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F401" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G401" t="n">
         <v>3</v>
@@ -14792,10 +14765,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="F402" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="G402" t="n">
         <v>3</v>
@@ -14821,10 +14794,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F403" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G403" t="n">
         <v>8</v>
@@ -14850,10 +14823,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F404" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G404" t="n">
         <v>4</v>
@@ -14879,10 +14852,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="F405" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="G405" t="n">
         <v>2</v>
@@ -14908,10 +14881,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="F406" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="G406" t="n">
         <v>4</v>
@@ -14937,10 +14910,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="F407" t="s">
-        <v>728</v>
+        <v>593</v>
       </c>
       <c r="G407" t="n">
         <v>3</v>
@@ -14966,10 +14939,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="F408" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14995,10 +14968,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="F409" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="G409" t="n">
         <v>7</v>
@@ -15024,10 +14997,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="F410" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="G410" t="n">
         <v>2</v>
@@ -15053,10 +15026,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="F411" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15082,10 +15055,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F412" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G412" t="n">
         <v>4</v>
@@ -15111,10 +15084,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F413" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G413" t="n">
         <v>7</v>
@@ -15140,10 +15113,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F414" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G414" t="n">
         <v>4</v>
@@ -15169,10 +15142,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F415" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G415" t="n">
         <v>7</v>
@@ -15198,10 +15171,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="F416" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="G416" t="n">
         <v>4</v>
@@ -15227,10 +15200,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F417" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G417" t="n">
         <v>8</v>
@@ -15256,10 +15229,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="F418" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="G418" t="n">
         <v>3</v>
@@ -15285,10 +15258,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F419" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G419" t="n">
         <v>4</v>
@@ -15314,10 +15287,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="F420" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="G420" t="n">
         <v>2</v>
@@ -15343,10 +15316,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F421" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G421" t="n">
         <v>4</v>
@@ -15372,10 +15345,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="F422" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15401,10 +15374,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="F423" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="G423" t="n">
         <v>4</v>
@@ -15430,10 +15403,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="F424" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="G424" t="n">
         <v>4</v>
@@ -15459,10 +15432,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="F425" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="G425" t="n">
         <v>4</v>
@@ -15488,10 +15461,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F426" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G426" t="n">
         <v>6</v>
@@ -15517,10 +15490,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="F427" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="G427" t="n">
         <v>11</v>
@@ -15546,10 +15519,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="F428" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="G428" t="n">
         <v>2</v>
@@ -15575,10 +15548,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="F429" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15604,10 +15577,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="F430" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="G430" t="n">
         <v>4</v>
@@ -15633,10 +15606,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="F431" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="G431" t="n">
         <v>5</v>
@@ -15662,10 +15635,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="F432" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="G432" t="n">
         <v>3</v>
@@ -15691,10 +15664,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="F433" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="G433" t="n">
         <v>4</v>
@@ -15720,10 +15693,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="F434" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="G434" t="n">
         <v>2</v>
@@ -15749,10 +15722,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="F435" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="G435" t="n">
         <v>2</v>
@@ -15778,10 +15751,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="F436" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="G436" t="n">
         <v>6</v>
@@ -15807,10 +15780,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="F437" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15836,10 +15809,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="F438" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G438" t="n">
         <v>2</v>
@@ -15865,10 +15838,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="F439" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="G439" t="n">
         <v>2</v>
@@ -15894,10 +15867,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="F440" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -15923,10 +15896,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="F441" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="G441" t="n">
         <v>3</v>
@@ -15952,10 +15925,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="F442" t="s">
-        <v>782</v>
+        <v>585</v>
       </c>
       <c r="G442" t="n">
         <v>3</v>
@@ -15981,10 +15954,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="F443" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16010,10 +15983,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="F444" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16039,10 +16012,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="F445" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16068,10 +16041,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F446" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G446" t="n">
         <v>5</v>
@@ -16097,10 +16070,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="F447" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16126,10 +16099,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="F448" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="G448" t="n">
         <v>2</v>
@@ -16155,10 +16128,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="F449" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16184,10 +16157,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="F450" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16213,10 +16186,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="F451" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16242,10 +16215,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="F452" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16271,10 +16244,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="F453" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16300,10 +16273,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="F454" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16329,10 +16302,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="F455" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16361,7 +16334,7 @@
         <v>521</v>
       </c>
       <c r="F456" t="s">
-        <v>522</v>
+        <v>144</v>
       </c>
       <c r="G456" t="n">
         <v>2</v>
@@ -16387,10 +16360,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="F457" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="G457" t="n">
         <v>2</v>
@@ -16416,10 +16389,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="F458" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16445,10 +16418,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="F459" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16474,10 +16447,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F460" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G460" t="n">
         <v>3</v>
@@ -16503,10 +16476,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="F461" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="G461" t="n">
         <v>2</v>
@@ -16532,10 +16505,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="F462" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="G462" t="n">
         <v>2</v>
@@ -16561,10 +16534,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="F463" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16590,10 +16563,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="F464" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -16619,10 +16592,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="F465" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16648,10 +16621,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="F466" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -16677,10 +16650,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="F467" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -16706,10 +16679,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="F468" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -16735,10 +16708,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="F469" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -16764,10 +16737,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F470" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G470" t="n">
         <v>6</v>
@@ -16793,10 +16766,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="F471" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="G471" t="n">
         <v>3</v>
@@ -16822,10 +16795,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="F472" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="G472" t="n">
         <v>2</v>
@@ -16851,10 +16824,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="F473" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -16880,10 +16853,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="F474" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -16909,10 +16882,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="F475" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="G475" t="n">
         <v>2</v>
@@ -16938,10 +16911,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="F476" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -16967,10 +16940,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="F477" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="G477" t="n">
         <v>2</v>
@@ -16996,10 +16969,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="F478" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17025,10 +16998,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F479" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G479" t="n">
         <v>4</v>
@@ -17054,10 +17027,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="F480" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="G480" t="n">
         <v>2</v>
@@ -17083,10 +17056,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="F481" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17112,10 +17085,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="F482" t="s">
-        <v>852</v>
+        <v>626</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17141,10 +17114,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="F483" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17170,10 +17143,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F484" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G484" t="n">
         <v>2</v>
@@ -17199,10 +17172,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="F485" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17228,10 +17201,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="F486" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="G486" t="n">
         <v>2</v>
@@ -17257,10 +17230,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="F487" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17286,10 +17259,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="F488" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17315,10 +17288,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="F489" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17344,10 +17317,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="F490" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17373,10 +17346,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="F491" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17402,10 +17375,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="F492" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -17431,10 +17404,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="F493" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17460,10 +17433,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="F494" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -17489,10 +17462,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="F495" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -17518,10 +17491,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="F496" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -17547,10 +17520,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="F497" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -17576,10 +17549,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="F498" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -17605,10 +17578,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F499" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -17634,10 +17607,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="F500" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -17663,10 +17636,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F501" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -17692,10 +17665,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="F502" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -17721,10 +17694,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="F503" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -17750,10 +17723,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="F504" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -17779,10 +17752,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="F505" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -17808,10 +17781,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="F506" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -17837,10 +17810,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="F507" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -17866,10 +17839,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="F508" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -17895,10 +17868,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="F509" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -17924,10 +17897,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="F510" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -17953,10 +17926,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="F511" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -17982,10 +17955,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="F512" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18011,10 +17984,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="F513" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18040,10 +18013,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="F514" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18069,10 +18042,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="F515" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18098,10 +18071,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="F516" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18127,10 +18100,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="F517" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18156,10 +18129,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F518" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18185,10 +18158,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="F519" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -18214,10 +18187,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="F520" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -18243,10 +18216,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="F521" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -18272,10 +18245,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="F522" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -18301,10 +18274,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="F523" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -18330,10 +18303,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F524" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -18359,10 +18332,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="F525" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -18388,10 +18361,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="F526" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -18417,10 +18390,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="F527" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -18446,10 +18419,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="F528" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -18475,10 +18448,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="F529" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -18504,10 +18477,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="F530" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -18533,10 +18506,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="F531" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -18562,10 +18535,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="F532" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -18591,10 +18564,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="F533" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -18620,10 +18593,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="F534" t="s">
-        <v>922</v>
+        <v>850</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -18649,10 +18622,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="F535" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -18678,10 +18651,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="F536" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>

--- a/xlsx/哈佛大学_intext.xlsx
+++ b/xlsx/哈佛大学_intext.xlsx
@@ -29,7 +29,7 @@
     <t>黑龍江省</t>
   </si>
   <si>
-    <t>政策_政策_美國_哈佛大学</t>
+    <t>体育运动_体育运动_美式足球_哈佛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%88%BE%E6%BF%B1%E5%B8%82</t>
